--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28050" windowHeight="13365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="13365"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -160,18 +160,24 @@
   <si>
     <t>修正负责人</t>
   </si>
+  <si>
+    <t>余星赞/邵明基/李傲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,158 +215,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,22 +240,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,198 +260,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -679,426 +353,142 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="9" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="8">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 4" xfId="5"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 9" xfId="2"/>
     <cellStyle name="甘特图" xfId="1"/>
-    <cellStyle name="常规 9" xfId="2"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 3 12" xfId="4"/>
-    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
-    <cellStyle name="常规" xfId="9"/>
-    <cellStyle name="40% - Accent5" xfId="10" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="11" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="13" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="14" builtinId="43"/>
-    <cellStyle name="常规 3" xfId="15"/>
-    <cellStyle name="Accent4" xfId="16" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="17" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="18" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="19" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="20"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="22" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="24" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="25" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="26" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="27" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="29" builtinId="32"/>
-    <cellStyle name="Bad" xfId="30" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42"/>
-    <cellStyle name="Total" xfId="32" builtinId="25"/>
-    <cellStyle name="Output" xfId="33" builtinId="21"/>
-    <cellStyle name="Currency" xfId="34" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="35" builtinId="38"/>
-    <cellStyle name="Note" xfId="36" builtinId="10"/>
-    <cellStyle name="Input" xfId="37" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="38" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="39" builtinId="22"/>
-    <cellStyle name="Good" xfId="40" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="41" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="42" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="43" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="44" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="45" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="Title" xfId="47" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="48" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="49" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="52" builtinId="17"/>
-    <cellStyle name="Comma" xfId="53" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="54" builtinId="23"/>
-    <cellStyle name="Percent" xfId="55" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1107,7 +497,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1430,15 +820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="11" customWidth="1"/>
@@ -1462,7 +851,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1565,7 +954,7 @@
       <c r="S2" s="30"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1607,7 +996,7 @@
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1649,7 +1038,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1691,7 +1080,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1733,7 +1122,7 @@
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1765,17 +1154,25 @@
       <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="26"/>
+      <c r="L7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="23">
+        <v>42479</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="29"/>
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1817,7 +1214,7 @@
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1839,7 +1236,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -1861,7 +1258,7 @@
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
@@ -1883,7 +1280,7 @@
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -1905,7 +1302,7 @@
       <c r="S12" s="30"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1927,7 +1324,7 @@
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1949,7 +1346,7 @@
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1971,7 +1368,7 @@
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1993,7 +1390,7 @@
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -2015,7 +1412,7 @@
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -2037,7 +1434,7 @@
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -2059,7 +1456,7 @@
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -2081,7 +1478,7 @@
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -2103,7 +1500,7 @@
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -2125,7 +1522,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -2147,7 +1544,7 @@
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -2169,7 +1566,7 @@
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -2191,7 +1588,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -2213,7 +1610,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2235,7 +1632,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2257,7 +1654,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2279,7 +1676,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2301,7 +1698,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2323,7 +1720,7 @@
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2345,7 +1742,7 @@
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2367,7 +1764,7 @@
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2389,7 +1786,7 @@
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2411,7 +1808,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2433,7 +1830,7 @@
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2455,7 +1852,7 @@
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2477,7 +1874,7 @@
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2499,7 +1896,7 @@
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2521,7 +1918,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2543,7 +1940,7 @@
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2565,7 +1962,7 @@
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2587,7 +1984,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2609,7 +2006,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
     </row>
-    <row r="45" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2631,7 +2028,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2653,7 +2050,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2675,7 +2072,7 @@
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2697,7 +2094,7 @@
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2719,7 +2116,7 @@
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2741,7 +2138,7 @@
       <c r="S50" s="30"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2763,7 +2160,7 @@
       <c r="S51" s="30"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
@@ -2785,7 +2182,7 @@
       <c r="S52" s="30"/>
       <c r="T52" s="31"/>
     </row>
-    <row r="53" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
@@ -2807,7 +2204,7 @@
       <c r="S53" s="30"/>
       <c r="T53" s="31"/>
     </row>
-    <row r="54" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="19"/>
@@ -2829,7 +2226,7 @@
       <c r="S54" s="20"/>
       <c r="T54" s="31"/>
     </row>
-    <row r="55" s="9" customFormat="1" ht="13.5" spans="1:20">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="19"/>
@@ -2851,7 +2248,7 @@
       <c r="S55" s="20"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" ht="13.5" spans="1:19">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2872,7 +2269,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" ht="13.5" spans="1:19">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2893,7 +2290,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" ht="13.5" spans="1:19">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2914,7 +2311,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" ht="13.5" spans="1:19">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2935,7 +2332,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" ht="13.5" spans="1:19">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2956,7 +2353,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" ht="13.5" spans="1:19">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2977,7 +2374,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" ht="13.5" spans="1:19">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2998,7 +2395,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" ht="13.5" spans="1:19">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -3019,7 +2416,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" ht="13.5" spans="1:19">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -3040,7 +2437,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" ht="13.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -3061,7 +2458,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" ht="13.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -3082,7 +2479,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" ht="13.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -3103,7 +2500,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" ht="13.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -3124,7 +2521,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" ht="13.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -3145,7 +2542,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" ht="13.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -3166,7 +2563,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" ht="13.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -3187,7 +2584,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" ht="13.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -3208,7 +2605,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" ht="13.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3229,7 +2626,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" ht="13.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -3250,7 +2647,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" ht="13.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -3271,7 +2668,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" ht="13.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3292,7 +2689,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" ht="13.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3313,7 +2710,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" ht="13.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3334,7 +2731,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" ht="13.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3355,7 +2752,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" ht="13.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3376,7 +2773,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" ht="13.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3397,7 +2794,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" ht="13.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3418,7 +2815,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" ht="13.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3439,7 +2836,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" ht="13.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3460,7 +2857,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" ht="13.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3481,7 +2878,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" ht="13.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3502,7 +2899,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" ht="13.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3523,7 +2920,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" ht="13.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3544,7 +2941,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" ht="13.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3565,7 +2962,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" ht="13.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3586,7 +2983,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" ht="13.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3607,7 +3004,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" ht="13.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3628,7 +3025,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" ht="13.5" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3649,7 +3046,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" ht="13.5" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3670,7 +3067,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" ht="13.5" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3691,7 +3088,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" ht="13.5" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3712,7 +3109,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" ht="13.5" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3733,7 +3130,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" ht="13.5" spans="1:19">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3754,7 +3151,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" ht="13.5" spans="1:19">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3775,7 +3172,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" ht="13.5" spans="1:19">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3796,7 +3193,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" ht="13.5" spans="1:19">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3817,7 +3214,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" ht="13.5" spans="1:19">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3838,7 +3235,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" ht="13.5" spans="1:19">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3859,7 +3256,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" ht="13.5" spans="1:19">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3880,7 +3277,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" ht="13.5" spans="1:19">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3901,7 +3298,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" ht="13.5" spans="1:19">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3922,7 +3319,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" ht="13.5" spans="1:19">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3943,7 +3340,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" ht="13.5" spans="1:19">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3964,7 +3361,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" ht="13.5" spans="1:19">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3985,7 +3382,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" ht="13.5" spans="1:19">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -4006,7 +3403,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" ht="13.5" spans="1:19">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -4027,7 +3424,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" ht="13.5" spans="1:19">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -4048,7 +3445,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" ht="13.5" spans="1:19">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -4069,7 +3466,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" ht="13.5" spans="1:19">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -4090,7 +3487,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" ht="13.5" spans="1:19">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -4111,7 +3508,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" ht="13.5" spans="1:19">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -4132,7 +3529,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -4153,7 +3550,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -4174,7 +3571,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -4195,7 +3592,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -4216,7 +3613,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -4237,7 +3634,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -4258,7 +3655,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -4279,7 +3676,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -4300,7 +3697,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -4321,7 +3718,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -4342,7 +3739,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -4363,7 +3760,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -4384,7 +3781,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -4405,7 +3802,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -4426,7 +3823,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -4447,7 +3844,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -4468,7 +3865,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -4489,7 +3886,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -4510,7 +3907,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4531,7 +3928,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4552,7 +3949,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4573,7 +3970,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4594,7 +3991,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4615,7 +4012,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4636,7 +4033,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4657,7 +4054,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4678,7 +4075,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4699,7 +4096,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4720,7 +4117,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4741,7 +4138,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4762,7 +4159,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4783,7 +4180,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4804,7 +4201,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4825,7 +4222,7 @@
       <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4846,7 +4243,7 @@
       <c r="R150" s="21"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4867,7 +4264,7 @@
       <c r="R151" s="21"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4888,7 +4285,7 @@
       <c r="R152" s="21"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4909,7 +4306,7 @@
       <c r="R153" s="21"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4930,7 +4327,7 @@
       <c r="R154" s="21"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4951,7 +4348,7 @@
       <c r="R155" s="21"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4972,7 +4369,7 @@
       <c r="R156" s="21"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4993,7 +4390,7 @@
       <c r="R157" s="21"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -5014,7 +4411,7 @@
       <c r="R158" s="21"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -5035,7 +4432,7 @@
       <c r="R159" s="21"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -5056,7 +4453,7 @@
       <c r="R160" s="21"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -5077,7 +4474,7 @@
       <c r="R161" s="21"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -5098,7 +4495,7 @@
       <c r="R162" s="21"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -5119,7 +4516,7 @@
       <c r="R163" s="21"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -5140,7 +4537,7 @@
       <c r="R164" s="21"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -5161,7 +4558,7 @@
       <c r="R165" s="21"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -5182,7 +4579,7 @@
       <c r="R166" s="21"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -5203,7 +4600,7 @@
       <c r="R167" s="21"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -5224,7 +4621,7 @@
       <c r="R168" s="21"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -5245,7 +4642,7 @@
       <c r="R169" s="21"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -5266,7 +4663,7 @@
       <c r="R170" s="21"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -5287,7 +4684,7 @@
       <c r="R171" s="21"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -5308,7 +4705,7 @@
       <c r="R172" s="21"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -5329,7 +4726,7 @@
       <c r="R173" s="21"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -5350,7 +4747,7 @@
       <c r="R174" s="21"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -5371,7 +4768,7 @@
       <c r="R175" s="21"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -5392,7 +4789,7 @@
       <c r="R176" s="21"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -5410,7 +4807,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -5428,7 +4825,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -5446,7 +4843,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -5464,7 +4861,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -5482,7 +4879,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -5500,7 +4897,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -5518,7 +4915,7 @@
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
@@ -5536,7 +4933,7 @@
       <c r="O184" s="22"/>
       <c r="S184" s="22"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
@@ -5554,7 +4951,7 @@
       <c r="O185" s="22"/>
       <c r="S185" s="22"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
@@ -5572,7 +4969,7 @@
       <c r="O186" s="22"/>
       <c r="S186" s="22"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
@@ -5590,7 +4987,7 @@
       <c r="O187" s="22"/>
       <c r="S187" s="22"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
@@ -5608,7 +5005,7 @@
       <c r="O188" s="22"/>
       <c r="S188" s="22"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="21"/>
@@ -5626,7 +5023,7 @@
       <c r="O189" s="22"/>
       <c r="S189" s="22"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="21"/>
@@ -5644,7 +5041,7 @@
       <c r="O190" s="22"/>
       <c r="S190" s="22"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="21"/>
@@ -5662,7 +5059,7 @@
       <c r="O191" s="22"/>
       <c r="S191" s="22"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="21"/>
       <c r="B192" s="22"/>
       <c r="C192" s="21"/>
@@ -5680,7 +5077,7 @@
       <c r="O192" s="22"/>
       <c r="S192" s="22"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="21"/>
@@ -5698,7 +5095,7 @@
       <c r="O193" s="22"/>
       <c r="S193" s="22"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="21"/>
@@ -5716,7 +5113,7 @@
       <c r="O194" s="22"/>
       <c r="S194" s="22"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="21"/>
       <c r="B195" s="22"/>
       <c r="C195" s="21"/>
@@ -5734,7 +5131,7 @@
       <c r="O195" s="22"/>
       <c r="S195" s="22"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="21"/>
@@ -5752,7 +5149,7 @@
       <c r="O196" s="22"/>
       <c r="S196" s="22"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="21"/>
@@ -5770,7 +5167,7 @@
       <c r="O197" s="22"/>
       <c r="S197" s="22"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="21"/>
@@ -5788,7 +5185,7 @@
       <c r="O198" s="22"/>
       <c r="S198" s="22"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="21"/>
@@ -5806,7 +5203,7 @@
       <c r="O199" s="22"/>
       <c r="S199" s="22"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="21"/>
@@ -5824,7 +5221,7 @@
       <c r="O200" s="22"/>
       <c r="S200" s="22"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="21"/>
@@ -5842,7 +5239,7 @@
       <c r="O201" s="22"/>
       <c r="S201" s="22"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="21"/>
@@ -5860,7 +5257,7 @@
       <c r="O202" s="22"/>
       <c r="S202" s="22"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="21"/>
@@ -5878,7 +5275,7 @@
       <c r="O203" s="22"/>
       <c r="S203" s="22"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="21"/>
       <c r="B204" s="22"/>
       <c r="C204" s="21"/>
@@ -5896,7 +5293,7 @@
       <c r="O204" s="22"/>
       <c r="S204" s="22"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="21"/>
       <c r="B205" s="22"/>
       <c r="C205" s="21"/>
@@ -5914,7 +5311,7 @@
       <c r="O205" s="22"/>
       <c r="S205" s="22"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="21"/>
       <c r="B206" s="22"/>
       <c r="C206" s="21"/>
@@ -5932,7 +5329,7 @@
       <c r="O206" s="22"/>
       <c r="S206" s="22"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="21"/>
@@ -5950,7 +5347,7 @@
       <c r="O207" s="22"/>
       <c r="S207" s="22"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="21"/>
@@ -5968,7 +5365,7 @@
       <c r="O208" s="22"/>
       <c r="S208" s="22"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="21"/>
       <c r="B209" s="22"/>
       <c r="C209" s="21"/>
@@ -5986,7 +5383,7 @@
       <c r="O209" s="22"/>
       <c r="S209" s="22"/>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="21"/>
       <c r="B210" s="22"/>
       <c r="C210" s="21"/>
@@ -6004,7 +5401,7 @@
       <c r="O210" s="22"/>
       <c r="S210" s="22"/>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="21"/>
       <c r="B211" s="22"/>
       <c r="C211" s="21"/>
@@ -6023,22 +5420,21 @@
       <c r="S211" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -6049,7 +5445,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -6075,7 +5471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6085,7 +5481,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6095,7 +5491,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6105,7 +5501,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6115,7 +5511,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6125,7 +5521,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6135,7 +5531,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6145,7 +5541,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6155,7 +5551,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6165,7 +5561,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6175,7 +5571,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6185,7 +5581,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6195,7 +5591,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6205,7 +5601,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6215,7 +5611,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6225,7 +5621,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -6235,7 +5631,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6245,7 +5641,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6256,12 +5652,12 @@
       <c r="H19" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="13365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -170,6 +171,18 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行提现签名修复</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现定时器修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -487,6 +500,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -824,7 +840,7 @@
   <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -839,7 +855,7 @@
     <col min="8" max="8" width="9.875" style="11" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="11" customWidth="1"/>
     <col min="10" max="11" width="10.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16" style="10" customWidth="1"/>
     <col min="13" max="13" width="8.625" style="11" customWidth="1"/>
     <col min="14" max="14" width="10.625" style="11" customWidth="1"/>
     <col min="15" max="15" width="8.625" style="11" customWidth="1"/>
@@ -1172,7 +1188,7 @@
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1214,18 +1230,38 @@
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="23">
+        <v>42475</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="23">
+        <v>42475</v>
+      </c>
       <c r="I9" s="16"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="16"/>
       <c r="M9" s="26"/>
       <c r="N9" s="23"/>
@@ -1236,18 +1272,38 @@
       <c r="S9" s="30"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="23">
+        <v>42475</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="23">
+        <v>42475</v>
+      </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="L10" s="16"/>
       <c r="M10" s="26"/>
       <c r="N10" s="23"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -165,11 +165,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>pass</t>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +836,7 @@
   <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,10 +1124,18 @@
       <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="26"/>
+      <c r="L6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="23">
+        <v>42480</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
@@ -1158,13 +1178,13 @@
         <v>48</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N7" s="23">
         <v>42479</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="13365"/>
+    <workbookView windowWidth="28050" windowHeight="13365"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>No</t>
   </si>
@@ -92,6 +92,15 @@
     <t>架构组</t>
   </si>
   <si>
+    <t>赵良智</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -102,6 +111,9 @@
   </si>
   <si>
     <t>蒙先铭</t>
+  </si>
+  <si>
+    <t>黄展明</t>
   </si>
   <si>
     <t>租客订单列表性能优化</t>
@@ -128,7 +140,13 @@
     <t>提现黑名单维护功能</t>
   </si>
   <si>
+    <t>余星赞</t>
+  </si>
+  <si>
     <t>关键词拦截功能</t>
+  </si>
+  <si>
+    <t>余星赞/邵明基/李傲</t>
   </si>
   <si>
     <t>可用性埋点</t>
@@ -160,36 +178,18 @@
   <si>
     <t>修正负责人</t>
   </si>
-  <si>
-    <t>余星赞/邵明基/李傲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -222,27 +222,97 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,12 +322,75 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +405,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -365,142 +684,430 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="57">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="13" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="13" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="常规 3" xfId="6"/>
+  <cellStyles count="57">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="甘特图" xfId="1"/>
+    <cellStyle name="常规 9" xfId="2"/>
+    <cellStyle name="常规 6" xfId="3"/>
     <cellStyle name="常规 3 12" xfId="4"/>
-    <cellStyle name="常规 4" xfId="5"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 9" xfId="2"/>
-    <cellStyle name="甘特图" xfId="1"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
+    <cellStyle name="常规" xfId="9"/>
+    <cellStyle name="40% - Accent5" xfId="10" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="11" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="12" builtinId="44"/>
+    <cellStyle name="常规 4" xfId="13"/>
+    <cellStyle name="Accent5" xfId="14" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="15" builtinId="43"/>
+    <cellStyle name="常规 3" xfId="16"/>
+    <cellStyle name="Accent4" xfId="17" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="19" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="20" builtinId="36"/>
+    <cellStyle name="常规 2" xfId="21"/>
+    <cellStyle name="Accent3" xfId="22" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="25" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="27" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="28" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="30" builtinId="32"/>
+    <cellStyle name="Bad" xfId="31" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42"/>
+    <cellStyle name="Total" xfId="33" builtinId="25"/>
+    <cellStyle name="Output" xfId="34" builtinId="21"/>
+    <cellStyle name="Currency" xfId="35" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="36" builtinId="38"/>
+    <cellStyle name="Note" xfId="37" builtinId="10"/>
+    <cellStyle name="Input" xfId="38" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="39" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="40" builtinId="22"/>
+    <cellStyle name="Good" xfId="41" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="42" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="43" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="44" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="45" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="46" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="47" builtinId="50"/>
+    <cellStyle name="Title" xfId="48" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="49" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="50" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="53" builtinId="17"/>
+    <cellStyle name="Comma" xfId="54" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="55" builtinId="23"/>
+    <cellStyle name="Percent" xfId="56" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -509,7 +1116,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -832,14 +1439,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="11" customWidth="1"/>
@@ -863,7 +1471,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" s="8" customFormat="1" ht="26.25" spans="1:19">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -922,7 +1530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -954,30 +1562,38 @@
       <c r="K2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="23">
+        <v>42480</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S2" s="30"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
@@ -993,33 +1609,41 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="26"/>
+      <c r="L3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="23">
+        <v>42480</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>22</v>
@@ -1035,33 +1659,41 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="23">
+        <v>42480</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
@@ -1077,33 +1709,41 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="23">
+        <v>42479</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
@@ -1119,22 +1759,22 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N6" s="23">
         <v>42480</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -1142,18 +1782,18 @@
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="7" s="9" customFormat="1" ht="40.5" spans="1:20">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>22</v>
@@ -1169,22 +1809,22 @@
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N7" s="23">
         <v>42479</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
@@ -1192,18 +1832,18 @@
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>22</v>
@@ -1219,22 +1859,30 @@
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="26"/>
+      <c r="L8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="23">
+        <v>42480</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
       <c r="R8" s="29"/>
       <c r="S8" s="30"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -1256,7 +1904,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -1278,7 +1926,7 @@
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
@@ -1300,7 +1948,7 @@
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -1322,7 +1970,7 @@
       <c r="S12" s="30"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A13" s="14"/>
       <c r="B13" s="18"/>
       <c r="C13" s="16"/>
@@ -1344,7 +1992,7 @@
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A14" s="14"/>
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
@@ -1366,7 +2014,7 @@
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="16"/>
@@ -1388,7 +2036,7 @@
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1410,7 +2058,7 @@
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1432,7 +2080,7 @@
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1454,7 +2102,7 @@
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1476,7 +2124,7 @@
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1498,7 +2146,7 @@
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1520,7 +2168,7 @@
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -1542,7 +2190,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -1564,7 +2212,7 @@
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -1586,7 +2234,7 @@
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -1608,7 +2256,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -1630,7 +2278,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -1652,7 +2300,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -1674,7 +2322,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -1696,7 +2344,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -1718,7 +2366,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -1740,7 +2388,7 @@
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -1762,7 +2410,7 @@
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -1784,7 +2432,7 @@
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -1806,7 +2454,7 @@
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -1828,7 +2476,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -1850,7 +2498,7 @@
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -1872,7 +2520,7 @@
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -1894,7 +2542,7 @@
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -1916,7 +2564,7 @@
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -1938,7 +2586,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -1960,7 +2608,7 @@
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -1982,7 +2630,7 @@
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2004,7 +2652,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2026,7 +2674,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2048,7 +2696,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2070,7 +2718,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2092,7 +2740,7 @@
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2114,7 +2762,7 @@
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2136,7 +2784,7 @@
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A50" s="14"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2158,7 +2806,7 @@
       <c r="S50" s="30"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2180,7 +2828,7 @@
       <c r="S51" s="30"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A52" s="14"/>
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
@@ -2202,7 +2850,7 @@
       <c r="S52" s="30"/>
       <c r="T52" s="31"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A53" s="14"/>
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
@@ -2224,7 +2872,7 @@
       <c r="S53" s="30"/>
       <c r="T53" s="31"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="19"/>
@@ -2246,7 +2894,7 @@
       <c r="S54" s="20"/>
       <c r="T54" s="31"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" s="9" customFormat="1" ht="13.5" spans="1:20">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="19"/>
@@ -2268,7 +2916,7 @@
       <c r="S55" s="20"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" ht="13.5" spans="1:19">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2289,7 +2937,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" ht="13.5" spans="1:19">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2310,7 +2958,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" ht="13.5" spans="1:19">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2331,7 +2979,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" ht="13.5" spans="1:19">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2352,7 +3000,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" ht="13.5" spans="1:19">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2373,7 +3021,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" ht="13.5" spans="1:19">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2394,7 +3042,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" ht="13.5" spans="1:19">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2415,7 +3063,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" ht="13.5" spans="1:19">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2436,7 +3084,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" ht="13.5" spans="1:19">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2457,7 +3105,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" ht="13.5" spans="1:19">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2478,7 +3126,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" ht="13.5" spans="1:19">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2499,7 +3147,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" ht="13.5" spans="1:19">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2520,7 +3168,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" ht="13.5" spans="1:19">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2541,7 +3189,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" ht="13.5" spans="1:19">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2562,7 +3210,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" ht="13.5" spans="1:19">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2583,7 +3231,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" ht="13.5" spans="1:19">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2604,7 +3252,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" ht="13.5" spans="1:19">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2625,7 +3273,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" ht="13.5" spans="1:19">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2646,7 +3294,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" ht="13.5" spans="1:19">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2667,7 +3315,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" ht="13.5" spans="1:19">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2688,7 +3336,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" ht="13.5" spans="1:19">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2709,7 +3357,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" ht="13.5" spans="1:19">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2730,7 +3378,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" ht="13.5" spans="1:19">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2751,7 +3399,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" ht="13.5" spans="1:19">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -2772,7 +3420,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" ht="13.5" spans="1:19">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -2793,7 +3441,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" ht="13.5" spans="1:19">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -2814,7 +3462,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" ht="13.5" spans="1:19">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -2835,7 +3483,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" ht="13.5" spans="1:19">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -2856,7 +3504,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" ht="13.5" spans="1:19">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -2877,7 +3525,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" ht="13.5" spans="1:19">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -2898,7 +3546,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" ht="13.5" spans="1:19">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -2919,7 +3567,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" ht="13.5" spans="1:19">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -2940,7 +3588,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" ht="13.5" spans="1:19">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -2961,7 +3609,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" ht="13.5" spans="1:19">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -2982,7 +3630,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" ht="13.5" spans="1:19">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3003,7 +3651,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" ht="13.5" spans="1:19">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3024,7 +3672,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" ht="13.5" spans="1:19">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3045,7 +3693,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" ht="13.5" spans="1:19">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3066,7 +3714,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" ht="13.5" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3087,7 +3735,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" ht="13.5" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3108,7 +3756,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" ht="13.5" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3129,7 +3777,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" ht="13.5" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3150,7 +3798,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" ht="13.5" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3171,7 +3819,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" ht="13.5" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3192,7 +3840,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" ht="13.5" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3213,7 +3861,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" ht="13.5" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3234,7 +3882,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" ht="13.5" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3255,7 +3903,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" ht="13.5" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3276,7 +3924,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" ht="13.5" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3297,7 +3945,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" ht="13.5" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3318,7 +3966,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" ht="13.5" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3339,7 +3987,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" ht="13.5" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3360,7 +4008,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" ht="13.5" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3381,7 +4029,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" ht="13.5" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3402,7 +4050,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" ht="13.5" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3423,7 +4071,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" ht="13.5" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3444,7 +4092,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" ht="13.5" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3465,7 +4113,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" ht="13.5" spans="1:19">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3486,7 +4134,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" ht="13.5" spans="1:19">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3507,7 +4155,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" ht="13.5" spans="1:19">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3528,7 +4176,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" ht="13.5" spans="1:19">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3549,7 +4197,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3570,7 +4218,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3591,7 +4239,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3612,7 +4260,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3633,7 +4281,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3654,7 +4302,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3675,7 +4323,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3696,7 +4344,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3717,7 +4365,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3738,7 +4386,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3759,7 +4407,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -3780,7 +4428,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -3801,7 +4449,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -3822,7 +4470,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -3843,7 +4491,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -3864,7 +4512,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -3885,7 +4533,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -3906,7 +4554,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -3927,7 +4575,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -3948,7 +4596,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -3969,7 +4617,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -3990,7 +4638,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4011,7 +4659,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4032,7 +4680,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4053,7 +4701,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4074,7 +4722,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4095,7 +4743,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4116,7 +4764,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4137,7 +4785,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4158,7 +4806,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4179,7 +4827,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4200,7 +4848,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4221,7 +4869,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4242,7 +4890,7 @@
       <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4263,7 +4911,7 @@
       <c r="R150" s="21"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4284,7 +4932,7 @@
       <c r="R151" s="21"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4305,7 +4953,7 @@
       <c r="R152" s="21"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4326,7 +4974,7 @@
       <c r="R153" s="21"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4347,7 +4995,7 @@
       <c r="R154" s="21"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4368,7 +5016,7 @@
       <c r="R155" s="21"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4389,7 +5037,7 @@
       <c r="R156" s="21"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4410,7 +5058,7 @@
       <c r="R157" s="21"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4431,7 +5079,7 @@
       <c r="R158" s="21"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4452,7 +5100,7 @@
       <c r="R159" s="21"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4473,7 +5121,7 @@
       <c r="R160" s="21"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4494,7 +5142,7 @@
       <c r="R161" s="21"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4515,7 +5163,7 @@
       <c r="R162" s="21"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4536,7 +5184,7 @@
       <c r="R163" s="21"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4557,7 +5205,7 @@
       <c r="R164" s="21"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4578,7 +5226,7 @@
       <c r="R165" s="21"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4599,7 +5247,7 @@
       <c r="R166" s="21"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4620,7 +5268,7 @@
       <c r="R167" s="21"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4641,7 +5289,7 @@
       <c r="R168" s="21"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4662,7 +5310,7 @@
       <c r="R169" s="21"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4683,7 +5331,7 @@
       <c r="R170" s="21"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4704,7 +5352,7 @@
       <c r="R171" s="21"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4725,7 +5373,7 @@
       <c r="R172" s="21"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4746,7 +5394,7 @@
       <c r="R173" s="21"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4767,7 +5415,7 @@
       <c r="R174" s="21"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4788,7 +5436,7 @@
       <c r="R175" s="21"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4809,7 +5457,7 @@
       <c r="R176" s="21"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4827,7 +5475,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4845,7 +5493,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -4863,7 +5511,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -4881,7 +5529,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -4899,7 +5547,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -4917,7 +5565,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -4935,7 +5583,7 @@
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
@@ -4953,7 +5601,7 @@
       <c r="O184" s="22"/>
       <c r="S184" s="22"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
@@ -4971,7 +5619,7 @@
       <c r="O185" s="22"/>
       <c r="S185" s="22"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
@@ -4989,7 +5637,7 @@
       <c r="O186" s="22"/>
       <c r="S186" s="22"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
@@ -5007,7 +5655,7 @@
       <c r="O187" s="22"/>
       <c r="S187" s="22"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
@@ -5025,7 +5673,7 @@
       <c r="O188" s="22"/>
       <c r="S188" s="22"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="21"/>
@@ -5043,7 +5691,7 @@
       <c r="O189" s="22"/>
       <c r="S189" s="22"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="21"/>
@@ -5061,7 +5709,7 @@
       <c r="O190" s="22"/>
       <c r="S190" s="22"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="21"/>
       <c r="B191" s="22"/>
       <c r="C191" s="21"/>
@@ -5079,7 +5727,7 @@
       <c r="O191" s="22"/>
       <c r="S191" s="22"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="21"/>
       <c r="B192" s="22"/>
       <c r="C192" s="21"/>
@@ -5097,7 +5745,7 @@
       <c r="O192" s="22"/>
       <c r="S192" s="22"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="21"/>
@@ -5115,7 +5763,7 @@
       <c r="O193" s="22"/>
       <c r="S193" s="22"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="21"/>
@@ -5133,7 +5781,7 @@
       <c r="O194" s="22"/>
       <c r="S194" s="22"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19">
       <c r="A195" s="21"/>
       <c r="B195" s="22"/>
       <c r="C195" s="21"/>
@@ -5151,7 +5799,7 @@
       <c r="O195" s="22"/>
       <c r="S195" s="22"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19">
       <c r="A196" s="21"/>
       <c r="B196" s="22"/>
       <c r="C196" s="21"/>
@@ -5169,7 +5817,7 @@
       <c r="O196" s="22"/>
       <c r="S196" s="22"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19">
       <c r="A197" s="21"/>
       <c r="B197" s="22"/>
       <c r="C197" s="21"/>
@@ -5187,7 +5835,7 @@
       <c r="O197" s="22"/>
       <c r="S197" s="22"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19">
       <c r="A198" s="21"/>
       <c r="B198" s="22"/>
       <c r="C198" s="21"/>
@@ -5205,7 +5853,7 @@
       <c r="O198" s="22"/>
       <c r="S198" s="22"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19">
       <c r="A199" s="21"/>
       <c r="B199" s="22"/>
       <c r="C199" s="21"/>
@@ -5223,7 +5871,7 @@
       <c r="O199" s="22"/>
       <c r="S199" s="22"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="21"/>
@@ -5241,7 +5889,7 @@
       <c r="O200" s="22"/>
       <c r="S200" s="22"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="21"/>
@@ -5259,7 +5907,7 @@
       <c r="O201" s="22"/>
       <c r="S201" s="22"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="21"/>
@@ -5277,7 +5925,7 @@
       <c r="O202" s="22"/>
       <c r="S202" s="22"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="21"/>
@@ -5295,7 +5943,7 @@
       <c r="O203" s="22"/>
       <c r="S203" s="22"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19">
       <c r="A204" s="21"/>
       <c r="B204" s="22"/>
       <c r="C204" s="21"/>
@@ -5313,7 +5961,7 @@
       <c r="O204" s="22"/>
       <c r="S204" s="22"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19">
       <c r="A205" s="21"/>
       <c r="B205" s="22"/>
       <c r="C205" s="21"/>
@@ -5331,7 +5979,7 @@
       <c r="O205" s="22"/>
       <c r="S205" s="22"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19">
       <c r="A206" s="21"/>
       <c r="B206" s="22"/>
       <c r="C206" s="21"/>
@@ -5349,7 +5997,7 @@
       <c r="O206" s="22"/>
       <c r="S206" s="22"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="21"/>
@@ -5367,7 +6015,7 @@
       <c r="O207" s="22"/>
       <c r="S207" s="22"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="21"/>
@@ -5385,7 +6033,7 @@
       <c r="O208" s="22"/>
       <c r="S208" s="22"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19">
       <c r="A209" s="21"/>
       <c r="B209" s="22"/>
       <c r="C209" s="21"/>
@@ -5403,7 +6051,7 @@
       <c r="O209" s="22"/>
       <c r="S209" s="22"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19">
       <c r="A210" s="21"/>
       <c r="B210" s="22"/>
       <c r="C210" s="21"/>
@@ -5421,7 +6069,7 @@
       <c r="O210" s="22"/>
       <c r="S210" s="22"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19">
       <c r="A211" s="21"/>
       <c r="B211" s="22"/>
       <c r="C211" s="21"/>
@@ -5440,21 +6088,22 @@
       <c r="S211" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5465,33 +6114,33 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5501,7 +6150,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5511,7 +6160,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5521,7 +6170,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5531,7 +6180,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5541,7 +6190,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5551,7 +6200,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5561,7 +6210,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5571,7 +6220,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5581,7 +6230,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5591,7 +6240,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5601,7 +6250,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5611,7 +6260,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5621,7 +6270,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5631,7 +6280,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5641,7 +6290,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5651,7 +6300,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5661,7 +6310,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5672,12 +6321,12 @@
       <c r="H19" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>